--- a/biology/Médecine/Sulindac/Sulindac.xlsx
+++ b/biology/Médecine/Sulindac/Sulindac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sulindac est un anti-inflammatoire non stéroïdien (AINS) indénique du groupe des indoles. Il possède les propriétés suivantes : antalgique, antipyrétique, anti-inflammatoire, inhibition des fonctions plaquettaires.
@@ -513,7 +525,9 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La synthèse commence par la réaction du chlorure de p-fluorobenzyle (1) avec le méthylmalonate de diéthyle (2) déprotoné par l'éthanolate de sodium et donne un diester intermédiaire (3), dont la saponification et la décarboxylation subséquente conduisent à la 5-fluoro-2-méthyl-3-indanone (4). Alternativement, 4 peut être formé par réaction de Perkin entre le p-fluorobenzaldéhyde et l'anhydride propionique en présence d'acétate de sodium, puis hydrogénation catalytique de la double liaison à l'aide d'un catalyseur au palladium sur charbon.
 Une réaction de Réformatski avec un amalgame de zinc et un ester bromoacétique conduit au carbinol (5), qui est ensuite déshydraté avec de l'acide tosylique en l'indène 6. Alternativement, cette étape peut être effectuée dans une condensation de Knoevenagel avec de l'acide cyanoacétique, qui est ensuite décarboxylée.
